--- a/src/test/resources/sheetfiles/SalesforceData.xlsx
+++ b/src/test/resources/sheetfiles/SalesforceData.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D89254-594F-428A-9736-720C49FEC2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gui-automation\Salesforce-Wolfteam\src\test\resources\sheetfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCDEA9-AD27-4147-A214-1BA6E9ABA17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <sheet name="Opportunities" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Type</t>
   </si>
@@ -59,13 +63,55 @@
   </si>
   <si>
     <t>testing complete contact</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>StageName</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>Test Complete Opportunity</t>
+  </si>
+  <si>
+    <t>Test Basic Opportunity</t>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>This is a testing</t>
+  </si>
+  <si>
+    <t>CloseDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,27 +468,27 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -450,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -463,6 +509,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -470,19 +517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95426FC-9266-4CA3-AE73-9169E45E524F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -491,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -499,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -508,6 +553,109 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51929AAE-BF53-44F5-A8A3-D016B90BD2F9}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sheetfiles/SalesforceData.xlsx
+++ b/src/test/resources/sheetfiles/SalesforceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gui-automation\Salesforce-Wolfteam\src\test\resources\sheetfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCDEA9-AD27-4147-A214-1BA6E9ABA17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F92895-7154-4BEB-B1A8-925690336ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Type</t>
   </si>
@@ -56,15 +56,6 @@
     <t>testing complete acount</t>
   </si>
   <si>
-    <t>BasicContact</t>
-  </si>
-  <si>
-    <t>CompleteContact</t>
-  </si>
-  <si>
-    <t>testing complete contact</t>
-  </si>
-  <si>
     <t>TypeId</t>
   </si>
   <si>
@@ -105,13 +96,82 @@
   </si>
   <si>
     <t>CloseDate</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>AssistantName</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Testing description</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Languages__c</t>
+  </si>
+  <si>
+    <t>Level__c</t>
+  </si>
+  <si>
+    <t>Franco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +183,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,14 +213,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -515,48 +586,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95426FC-9266-4CA3-AE73-9169E45E524F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>45678</v>
+      </c>
+      <c r="J3">
+        <v>1234</v>
+      </c>
+      <c r="K3">
+        <v>7777777</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -564,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51929AAE-BF53-44F5-A8A3-D016B90BD2F9}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -591,25 +748,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -617,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -631,28 +788,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>12</v>

--- a/src/test/resources/sheetfiles/SalesforceData.xlsx
+++ b/src/test/resources/sheetfiles/SalesforceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gui-automation\Salesforce-Wolfteam\src\test\resources\sheetfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F92895-7154-4BEB-B1A8-925690336ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93529DD5-DD83-4846-AF70-F59BF62FB103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/sheetfiles/SalesforceData.xlsx
+++ b/src/test/resources/sheetfiles/SalesforceData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gui-automation\Salesforce-Wolfteam\src\test\resources\sheetfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Java\Gui Test\Salesforce-Wolfteam\src\test\resources\sheetfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93529DD5-DD83-4846-AF70-F59BF62FB103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
     <sheet name="Opportunities" sheetId="3" r:id="rId3"/>
+    <sheet name="Leads" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Type</t>
   </si>
@@ -165,12 +165,30 @@
   </si>
   <si>
     <t>Franco</t>
+  </si>
+  <si>
+    <t>Basic Lead Test</t>
+  </si>
+  <si>
+    <t>Complete Lead Test</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Company Test</t>
+  </si>
+  <si>
+    <t>LeadStatus</t>
+  </si>
+  <si>
+    <t>Open - Not Contacted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
@@ -585,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95426FC-9266-4CA3-AE73-9169E45E524F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
@@ -718,14 +736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51929AAE-BF53-44F5-A8A3-D016B90BD2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
@@ -818,4 +836,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>